--- a/doc/Таблица регистров Modbus Р400.xlsx
+++ b/doc/Таблица регистров Modbus Р400.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
   <si>
     <t>Название и описание параметра</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Доступ</t>
   </si>
   <si>
-    <t>Адрес</t>
-  </si>
-  <si>
     <t>Год</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Режим работы Защиты</t>
   </si>
   <si>
-    <t>Доп. байт Защиты</t>
-  </si>
-  <si>
     <t>Код неисправности Защиты</t>
   </si>
   <si>
@@ -95,18 +89,6 @@
     <t>Запас по затуханию для второго приемника сигналов</t>
   </si>
   <si>
-    <t>Уровень принимаемого сигнала в рабочей полосе частот первого приемника отностительно чувтствительности</t>
-  </si>
-  <si>
-    <t>Уровень принимаемого сигнала в рабочей полосе частот второго приемника отностительно чувтствительности</t>
-  </si>
-  <si>
-    <t>Количество записей в журнале событий</t>
-  </si>
-  <si>
-    <t>Количество записей в журнале Защиты</t>
-  </si>
-  <si>
     <t>1 год</t>
   </si>
   <si>
@@ -125,9 +107,6 @@
     <t>1 сек</t>
   </si>
   <si>
-    <t>чт./зап.</t>
-  </si>
-  <si>
     <t>чт.</t>
   </si>
   <si>
@@ -140,21 +119,12 @@
     <t>0xFFFF</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>0,1 В</t>
   </si>
   <si>
@@ -173,15 +143,116 @@
     <t>99</t>
   </si>
   <si>
-    <t>256</t>
+    <t>Версии прошивок микросхем</t>
+  </si>
+  <si>
+    <t>БСП MCU</t>
+  </si>
+  <si>
+    <t>БСП DSP</t>
+  </si>
+  <si>
+    <t>ПИ MCU</t>
+  </si>
+  <si>
+    <t>БСЗ</t>
+  </si>
+  <si>
+    <t>Адрес (dec)</t>
+  </si>
+  <si>
+    <t>Адрес (hex)</t>
+  </si>
+  <si>
+    <t>Текущие измерения</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Запас по затуханию для первого приемника сигналов ВЧ защит</t>
+  </si>
+  <si>
+    <t>Запас по затуханию для второго приемника сигналов ВЧ защит</t>
+  </si>
+  <si>
+    <t>Неисправность</t>
+  </si>
+  <si>
+    <t>Предупреждение</t>
+  </si>
+  <si>
+    <r>
+      <t>Таблица регистров Словаря объектов приемопередатчика (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COM_03H_READ_HOLDING_REGISTERS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Таблица битовых флагов Словаря объектов приемопередатчика (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COM_01H_READ_COILS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -199,7 +270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,26 +422,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,6 +434,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,14 +456,49 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -675,510 +781,743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="104.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="1" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="104.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="str">
+        <f>DEC2HEX(A3)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F3" s="3">
+        <v>99</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="str">
+        <f t="shared" ref="B4:B8" si="0">DEC2HEX(A4)</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F4" s="3">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>59</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>59</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="str">
+        <f>DEC2HEX(A10)</f>
+        <v>A</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13" t="str">
+        <f>DEC2HEX(A11)</f>
+        <v>B</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>22</v>
+      </c>
+      <c r="B13" s="13" t="str">
+        <f t="shared" ref="B13:B16" si="1">DEC2HEX(A13)</f>
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>23</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>24</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>25</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>123</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f t="shared" ref="B18:B24" si="2">DEC2HEX(A18)</f>
+        <v>7B</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>124</v>
+      </c>
+      <c r="B19" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>7C</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>125</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>7D</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>126</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>7E</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>129</v>
+      </c>
+      <c r="B23" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>130</v>
+      </c>
+      <c r="B24" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>156</v>
+      </c>
+      <c r="B26" s="13" t="str">
+        <f t="shared" ref="B26:B27" si="3">DEC2HEX(A26)</f>
+        <v>9C</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>157</v>
+      </c>
+      <c r="B27" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>9D</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>158</v>
+      </c>
+      <c r="B28" s="13" t="str">
+        <f>DEC2HEX(A28)</f>
+        <v>9E</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>163</v>
+      </c>
+      <c r="B30" s="20" t="str">
+        <f>DEC2HEX(A30)</f>
+        <v>A3</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F34" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G34" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>16</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="8">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>201</v>
+      </c>
+      <c r="B35" s="13" t="str">
+        <f t="shared" ref="B35:B36" si="4">DEC2HEX(A35)</f>
+        <v>C9</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="15">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
-        <v>99</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="F35" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="8">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="G35" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>202</v>
+      </c>
+      <c r="B36" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v>CA</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0</v>
+      </c>
+      <c r="F36" s="22">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
-        <v>31</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>19</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>23</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>59</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>21</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>59</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>32</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>33</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>38</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>39</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>48</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>49</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>50</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>65</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>67</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>68</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>69</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>70</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>71</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>180</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>181</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>34</v>
+      <c r="G36" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A33:G33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
